--- a/dataproject.py/inventory.xlsx
+++ b/dataproject.py/inventory.xlsx
@@ -425,7 +425,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>102</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -447,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>104</v>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>106</v>
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
         <v>107</v>
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>109</v>

--- a/dataproject.py/inventory.xlsx
+++ b/dataproject.py/inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Make</t>
   </si>
@@ -25,16 +25,7 @@
     <t>Serial Number</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>Dell</t>
+    <t>Date Imported</t>
   </si>
 </sst>
 </file>
@@ -76,13 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,16 +366,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,115 +385,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
